--- a/EstimaciónDelphi_pruebas.xlsx
+++ b/EstimaciónDelphi_pruebas.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-1380" yWindow="3915" windowWidth="15195" windowHeight="4170" tabRatio="839"/>
+    <workbookView xWindow="-1380" yWindow="3915" windowWidth="15195" windowHeight="4170" tabRatio="839" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimaciones Delphi" sheetId="20" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="21" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="28">
   <si>
     <t>Complejidad</t>
   </si>
@@ -95,6 +96,9 @@
   </si>
   <si>
     <t>Pruebas del sistema completo</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -709,6 +713,123 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -716,123 +837,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1166,145 +1170,145 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="62"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="51" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="51" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="62"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="51" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="62"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
@@ -1341,12 +1345,12 @@
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="31" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1362,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -1392,7 +1396,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1428,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1457,203 +1461,213 @@
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="47"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:F3"/>
@@ -1670,30 +1684,20 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -1702,4 +1706,552 @@
 Estimación con el método Delphi</oddHeader>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="43"/>
+      <c r="B3" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="43"/>
+      <c r="B5" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="43"/>
+      <c r="B6" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="53"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="32"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="29" t="str">
+        <f>B3</f>
+        <v>Maricela Enríquez López</v>
+      </c>
+      <c r="D10" s="29" t="str">
+        <f>B4</f>
+        <v>Joel Aparicio Pérez</v>
+      </c>
+      <c r="E10" s="29" t="str">
+        <f>B5</f>
+        <v>Teodoro Alejandro Rocha Aguilera</v>
+      </c>
+      <c r="F10" s="29" t="str">
+        <f>B6</f>
+        <v>Alan Alberto Dromundo Arias</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+    </row>
+    <row r="11" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K11" s="30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="18">
+        <v>6</v>
+      </c>
+      <c r="D12" s="21">
+        <v>6</v>
+      </c>
+      <c r="E12" s="18">
+        <v>6</v>
+      </c>
+      <c r="F12" s="21">
+        <v>8</v>
+      </c>
+      <c r="G12" s="21"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="23">
+        <f>MIN(C12:H12)</f>
+        <v>6</v>
+      </c>
+      <c r="J12" s="24">
+        <f>MAX(C12:H12)</f>
+        <v>8</v>
+      </c>
+      <c r="K12" s="25">
+        <f>AVERAGE(C12:H12)</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="69"/>
+      <c r="B13" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="3">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>5</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="14">
+        <f>MIN(C13:H13)</f>
+        <v>4</v>
+      </c>
+      <c r="J13" s="5">
+        <f>MAX(C13:H13)</f>
+        <v>5</v>
+      </c>
+      <c r="K13" s="6">
+        <f>AVERAGE(C13:H13)</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="8">
+        <v>3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8">
+        <v>2</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="15">
+        <f>MIN(C14:H14)</f>
+        <v>2</v>
+      </c>
+      <c r="J14" s="9">
+        <f>MAX(C14:H14)</f>
+        <v>3</v>
+      </c>
+      <c r="K14" s="10">
+        <f>AVERAGE(C14:H14)</f>
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="63"/>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="66" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="67"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="72"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="73"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="39"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="34"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="39"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="39"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="34"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="39"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="39"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="34"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="39"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="39"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="39"/>
+    </row>
+    <row r="27" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B7:K7"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A16:L16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:H4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EstimaciónDelphi_pruebas.xlsx
+++ b/EstimaciónDelphi_pruebas.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AcmeDev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-1380" yWindow="3915" windowWidth="15195" windowHeight="4170" tabRatio="839"/>
   </bookViews>
   <sheets>
     <sheet name="Estimaciones Delphi" sheetId="20" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -709,6 +714,123 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -716,123 +838,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,7 +908,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -938,7 +943,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1166,145 +1171,145 @@
       <c r="B2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="60"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="41"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="65" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66" t="s">
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B4" s="62"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="43"/>
+      <c r="C4" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="56" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="51" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="52"/>
-      <c r="L4" s="53"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B5" s="62"/>
-      <c r="C5" s="54" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="56" t="s">
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="51" t="s">
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="53"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="57"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B6" s="62"/>
-      <c r="C6" s="54" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="56" t="s">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="51" t="s">
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="57"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B7" s="62"/>
-      <c r="C7" s="54" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="51" t="s">
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K7" s="52"/>
-      <c r="L7" s="53"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="57"/>
     </row>
     <row r="8" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="59"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
     </row>
     <row r="10" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J10" s="1"/>
@@ -1341,12 +1346,12 @@
       <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
       <c r="J12" s="31" t="s">
         <v>1</v>
       </c>
@@ -1358,7 +1363,7 @@
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -1392,7 +1397,7 @@
       </c>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="49"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="7" t="s">
         <v>5</v>
       </c>
@@ -1424,7 +1429,7 @@
       </c>
     </row>
     <row r="15" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="70"/>
       <c r="C15" s="11" t="s">
         <v>4</v>
       </c>
@@ -1457,203 +1462,213 @@
     </row>
     <row r="16" spans="2:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="43"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46" t="s">
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="46" t="s">
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="47"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="67"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33" t="s">
+      <c r="G19" s="72"/>
+      <c r="H19" s="72"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="34"/>
+      <c r="K19" s="72"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="39"/>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="35"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="39"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B22" s="35"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B23" s="35"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B24" s="35"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B25" s="35"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="39"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B26" s="35"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="39"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="39"/>
     </row>
     <row r="28" spans="2:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="69"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="71"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="37"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="C8:L8"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="B13:B15"/>
     <mergeCell ref="C2:L2"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:F3"/>
@@ -1670,30 +1685,20 @@
     <mergeCell ref="J6:L6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="C8:L8"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="B17:M17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="J27:M27"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="99" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
